--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adeko\Git\FitzgeraldKitchens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B03313-3A17-4F13-8CC2-A9A11942DFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7326FC80-3C65-452A-B372-13B20C9581EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
